--- a/Documentación/Psp's/Tania/Clase BD_ControlEscolar/TiempoEnFase.xlsx
+++ b/Documentación/Psp's/Tania/Clase BD_ControlEscolar/TiempoEnFase.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TaniaEsparza\Desktop\Clase BD_ControlEscolar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TaniaEsparza\Documents\GitHub\TSP_SoftwaRed\Documentación\Psp's\Tania\Clase BD_ControlEscolar\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="excel (2)" sheetId="1" r:id="rId1"/>
+    <sheet name="excel (6)" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="excel__2" localSheetId="0">'excel (2)'!$A$1:$E$27</definedName>
+    <definedName name="excel__6" localSheetId="0">'excel (6)'!$A$1:$E$27</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -23,7 +23,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\TaniaEsparza\Desktop\Clase BD_ControlEscolar\excel (2).iqy" name="excel (2)" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="1" odcFile="C:\Users\TaniaEsparza\AppData\Local\Packages\Microsoft.MicrosoftEdge_8wekyb3d8bbwe\TempState\Downloads\excel (6).iqy" name="excel (6)" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr consecutive="1" xl2000="1" url="http://localhost:2468/reports/form2html.class?uri=%2FProject%2FCodificacion%2BBD%2BControl%2BEscolar%2FPSP2%2E1%2F%2Fcms%2Fpsp2%2E1%2Fsummary%3Fframe%3Dcontent%26section%3D106&amp;EXPORT=excel" htmlFormat="all"/>
   </connection>
 </connections>
@@ -92,7 +92,7 @@
     <t>Adapted from "PSP Materials," copyright © 2006 Carnegie Mellon University. Used by permission.</t>
   </si>
   <si>
-    <t>Report generated at 9:38 AM on Nov 13, 2018</t>
+    <t>Report generated at 8:07 PM on Nov 19, 2018</t>
   </si>
 </sst>
 </file>
@@ -635,7 +635,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -662,6 +662,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -738,7 +741,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel (2)" preserveFormatting="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel (6)" preserveFormatting="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1070,10 +1073,10 @@
         <v>6.2499999999999995E-3</v>
       </c>
       <c r="D9" s="9">
-        <v>6.2499999999999995E-3</v>
+        <v>0</v>
       </c>
       <c r="E9" s="10">
-        <v>4.41E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1087,10 +1090,10 @@
         <v>3.6805555555555557E-2</v>
       </c>
       <c r="D10" s="9">
-        <v>3.6805555555555557E-2</v>
+        <v>0</v>
       </c>
       <c r="E10" s="10">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1104,10 +1107,10 @@
         <v>1.2499999999999999E-2</v>
       </c>
       <c r="D11" s="9">
-        <v>1.2499999999999999E-2</v>
-      </c>
-      <c r="E11" s="10">
-        <v>8.8200000000000001E-2</v>
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0.125</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1121,10 +1124,10 @@
         <v>4.4444444444444446E-2</v>
       </c>
       <c r="D12" s="9">
-        <v>4.4444444444444446E-2</v>
+        <v>0</v>
       </c>
       <c r="E12" s="10">
-        <v>0.314</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1138,10 +1141,10 @@
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="D13" s="9">
-        <v>1.7361111111111112E-2</v>
-      </c>
-      <c r="E13" s="10">
-        <v>0.123</v>
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0.125</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1155,10 +1158,10 @@
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D14" s="9">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="E14" s="10">
-        <v>2.4500000000000001E-2</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="11">
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1172,10 +1175,10 @@
         <v>1.5972222222222224E-2</v>
       </c>
       <c r="D15" s="9">
-        <v>1.5972222222222224E-2</v>
-      </c>
-      <c r="E15" s="10">
-        <v>0.113</v>
+        <v>0</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0.125</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1189,10 +1192,10 @@
         <v>4.8611111111111112E-3</v>
       </c>
       <c r="D16" s="9">
-        <v>4.8611111111111112E-3</v>
+        <v>0</v>
       </c>
       <c r="E16" s="10">
-        <v>3.4299999999999997E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1206,23 +1209,23 @@
         <v>0.14166666666666666</v>
       </c>
       <c r="D17" s="9">
-        <v>0.14166666666666666</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1233,12 +1236,12 @@
       <c r="A22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="15" t="s">
         <v>20</v>
       </c>
     </row>
